--- a/data_year/zb/资源和环境/废水中主要污染物排放.xlsx
+++ b/data_year/zb/资源和环境/废水中主要污染物排放.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,15 +503,15 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1339.17531</v>
+        <v>1238.1</v>
       </c>
       <c r="D2" t="n">
-        <v>4824094</v>
+        <v>6172562</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -522,566 +522,454 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>133.0073</v>
+        <v>120.28757</v>
       </c>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>106395.368</v>
+      </c>
       <c r="C3" t="n">
-        <v>1414.2</v>
+        <v>2499.86136235</v>
       </c>
       <c r="D3" t="n">
-        <v>5245089</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>6591922.4397</v>
+      </c>
+      <c r="E3" t="n">
+        <v>447.0788388</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2829.151</v>
+      </c>
+      <c r="G3" t="n">
+        <v>146615.967</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.37085374</v>
+      </c>
+      <c r="I3" t="n">
+        <v>155242.003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>293166.3446</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35898.983</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2430.568662</v>
+      </c>
       <c r="M3" t="n">
-        <v>149.78079</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>260.44046215</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21012.0887</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70533.60460000001</v>
+      </c>
       <c r="C4" t="n">
-        <v>1428.2</v>
+        <v>2424</v>
       </c>
       <c r="D4" t="n">
-        <v>5144802</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>6847612.1389104</v>
+      </c>
+      <c r="E4" t="n">
+        <v>451.37326386</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1223.4417</v>
+      </c>
+      <c r="G4" t="n">
+        <v>128493.7522</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48.87845068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99358.8079</v>
+      </c>
+      <c r="J4" t="n">
+        <v>190079.0841</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27249.8936</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1501.3076667</v>
+      </c>
       <c r="M4" t="n">
-        <v>141.32718</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>253.58926186</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17493.8763</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58291.4514</v>
+      </c>
       <c r="C5" t="n">
-        <v>1381.8</v>
+        <v>2352.7</v>
       </c>
       <c r="D5" t="n">
-        <v>5568494.1576</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>6954432.7040636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>448.09731951</v>
+      </c>
+      <c r="F5" t="n">
+        <v>916.524</v>
+      </c>
+      <c r="G5" t="n">
+        <v>112230.0289</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48.73314593</v>
+      </c>
+      <c r="I5" t="n">
+        <v>76111.96769999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163117.6819</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18435.7174</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1277.334352</v>
+      </c>
       <c r="M5" t="n">
-        <v>132.34255262</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>245.65528061</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18385.3496</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>34925.3293</v>
+      </c>
       <c r="C6" t="n">
-        <v>1320.7</v>
+        <v>2294.6</v>
       </c>
       <c r="D6" t="n">
-        <v>5716801</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>7161750.5251028</v>
+      </c>
+      <c r="E6" t="n">
+        <v>456.13668771</v>
+      </c>
+      <c r="F6" t="n">
+        <v>745.9142000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>109729.8472</v>
+      </c>
+      <c r="H6" t="n">
+        <v>53.44921276</v>
+      </c>
+      <c r="I6" t="n">
+        <v>73184.74099999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>132797.4327</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17251.0976</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1378.4254919</v>
+      </c>
       <c r="M6" t="n">
-        <v>126.97389</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>238.53423089</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16203.6399</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>23597.578</v>
+      </c>
       <c r="C7" t="n">
-        <v>1277.5</v>
+        <v>2223.5</v>
       </c>
       <c r="D7" t="n">
-        <v>5890877.2492</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>7353226.8276606</v>
+      </c>
+      <c r="E7" t="n">
+        <v>461.3313</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1079.9688</v>
+      </c>
+      <c r="G7" t="n">
+        <v>112101.2887</v>
+      </c>
+      <c r="H7" t="n">
+        <v>54.6773</v>
+      </c>
+      <c r="I7" t="n">
+        <v>79429.5325</v>
+      </c>
+      <c r="J7" t="n">
+        <v>105287.9811</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15819.9427</v>
+      </c>
+      <c r="L7" t="n">
+        <v>988.2119034999999</v>
+      </c>
       <c r="M7" t="n">
-        <v>122.60963132</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>229.9136315</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15192.031</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1238.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6172562</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>658.099131067077</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>123.550000447333</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>9.004753882110171</v>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>272.136895287838</v>
+      </c>
       <c r="M8" t="n">
-        <v>120.28757</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>56.770453717458</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11599.4261466173</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>106395.368</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>2499.86136235</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6591922.4397</v>
-      </c>
+        <v>608.8839920395</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>447.0788388</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2829.151</v>
-      </c>
-      <c r="G9" t="n">
-        <v>146615.967</v>
-      </c>
+        <v>120.2628709632</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>55.37085374</v>
-      </c>
-      <c r="I9" t="n">
-        <v>155242.003</v>
-      </c>
-      <c r="J9" t="n">
-        <v>293166.3446</v>
-      </c>
-      <c r="K9" t="n">
-        <v>35898.983</v>
-      </c>
+        <v>6.957391499</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>2430.568662</v>
+        <v>244.129267978</v>
       </c>
       <c r="M9" t="n">
-        <v>260.44046215</v>
+        <v>50.8657433868</v>
       </c>
       <c r="N9" t="n">
-        <v>21012.0887</v>
+        <v>7639.283871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>70533.60460000001</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>2424</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6847612.1389104</v>
-      </c>
+        <v>584.224181774951</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>451.37326386</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1223.4417</v>
-      </c>
-      <c r="G10" t="n">
-        <v>128493.7522</v>
-      </c>
+        <v>120.213052898882</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>48.87845068</v>
-      </c>
-      <c r="I10" t="n">
-        <v>99358.8079</v>
-      </c>
-      <c r="J10" t="n">
-        <v>190079.0841</v>
-      </c>
-      <c r="K10" t="n">
-        <v>27249.8936</v>
-      </c>
+        <v>6.41913903809035</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1501.3076667</v>
+        <v>174.458859150376</v>
       </c>
       <c r="M10" t="n">
-        <v>253.58926186</v>
+        <v>49.4356658824202</v>
       </c>
       <c r="N10" t="n">
-        <v>17493.8763</v>
+        <v>7157.689656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>58291.4514</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>2352.7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6954432.7040636</v>
-      </c>
+        <v>567.143300542839</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>448.09731951</v>
-      </c>
-      <c r="F11" t="n">
-        <v>916.524</v>
-      </c>
-      <c r="G11" t="n">
-        <v>112230.0289</v>
-      </c>
+        <v>117.649395163781</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>48.73314593</v>
-      </c>
-      <c r="I11" t="n">
-        <v>76111.96769999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>163117.6819</v>
-      </c>
-      <c r="K11" t="n">
-        <v>18435.7174</v>
-      </c>
+        <v>5.94317165907258</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1277.334352</v>
+        <v>147.089925682023</v>
       </c>
       <c r="M11" t="n">
-        <v>245.65528061</v>
+        <v>46.2528003745845</v>
       </c>
       <c r="N11" t="n">
-        <v>18385.3496</v>
+        <v>6292.97870086251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34925.3293</v>
+        <v>8549.502</v>
       </c>
       <c r="C12" t="n">
-        <v>2294.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7161750.5251028</v>
-      </c>
+        <v>2564.76</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>456.13668771</v>
+        <v>322.34</v>
       </c>
       <c r="F12" t="n">
-        <v>745.9142000000001</v>
+        <v>1128.512</v>
       </c>
       <c r="G12" t="n">
-        <v>109729.8472</v>
+        <v>10240.83</v>
       </c>
       <c r="H12" t="n">
-        <v>53.44921276</v>
+        <v>33.67</v>
       </c>
       <c r="I12" t="n">
-        <v>73184.74099999999</v>
+        <v>26679.604</v>
       </c>
       <c r="J12" t="n">
-        <v>132797.4327</v>
+        <v>30913.304</v>
       </c>
       <c r="K12" t="n">
-        <v>17251.0976</v>
+        <v>4166.146</v>
       </c>
       <c r="L12" t="n">
-        <v>1378.4254919</v>
+        <v>59.847986</v>
       </c>
       <c r="M12" t="n">
-        <v>238.53423089</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>16203.6399</v>
+        <v>3734.039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23597.578</v>
+        <v>3945.695</v>
       </c>
       <c r="C13" t="n">
-        <v>2223.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7353226.8276606</v>
-      </c>
+        <v>2530.9798376</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>461.3313</v>
+        <v>316.6627016</v>
       </c>
       <c r="F13" t="n">
-        <v>1079.9688</v>
+        <v>637.559</v>
       </c>
       <c r="G13" t="n">
-        <v>112101.2887</v>
+        <v>9222.864</v>
       </c>
       <c r="H13" t="n">
-        <v>54.6773</v>
+        <v>33.8144033</v>
       </c>
       <c r="I13" t="n">
-        <v>79429.5325</v>
+        <v>19588.44</v>
       </c>
       <c r="J13" t="n">
-        <v>105287.9811</v>
+        <v>17796.195</v>
       </c>
       <c r="K13" t="n">
-        <v>15819.9427</v>
+        <v>3269.569</v>
       </c>
       <c r="L13" t="n">
-        <v>988.2119034999999</v>
+        <v>51.791894</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9136315</v>
+        <v>86.7511894</v>
       </c>
       <c r="N13" t="n">
-        <v>15192.031</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>658.099131067077</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>123.550000447333</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>9.004753882110171</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>272.136895287838</v>
-      </c>
-      <c r="M14" t="n">
-        <v>56.770453717458</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11599.4261466173</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>608.8839920395</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>120.2628709632</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>6.957391499</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>244.129267978</v>
-      </c>
-      <c r="M15" t="n">
-        <v>50.8657433868</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7639.283871</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>584.224181774951</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>120.213052898882</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>6.41913903809035</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>174.458859150376</v>
-      </c>
-      <c r="M16" t="n">
-        <v>49.4356658824202</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7157.689656</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>567.143300542839</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>117.649395163781</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>5.94317165907258</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>147.089925682023</v>
-      </c>
-      <c r="M17" t="n">
-        <v>46.2528003745845</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6292.97870086251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8549.502</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2564.76</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>322.34</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1128.512</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10240.83</v>
-      </c>
-      <c r="H18" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26679.604</v>
-      </c>
-      <c r="J18" t="n">
-        <v>30913.304</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4166.146</v>
-      </c>
-      <c r="L18" t="n">
-        <v>59.847986</v>
-      </c>
-      <c r="M18" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3734.039</v>
+        <v>2217.54</v>
       </c>
     </row>
   </sheetData>
